--- a/experiments/pg/easy_simulation/traj_10_batch_200_max_rew_mlp_2x32_step_1e_1/log_best_traj.xlsx
+++ b/experiments/pg/easy_simulation/traj_10_batch_200_max_rew_mlp_2x32_step_1e_1/log_best_traj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K831"/>
+  <dimension ref="A1:K881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37176,6 +37176,2216 @@
         </is>
       </c>
     </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>0</v>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E832" t="n">
+        <v>21.0546400866959</v>
+      </c>
+      <c r="F832" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G832" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H832" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I832" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J832" t="inlineStr">
+        <is>
+          <t>[2.788453956132386e-20, 1.2227929621614242e-15, 1.0]</t>
+        </is>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>[1.0, 2.2755357486507527e-16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>830</v>
+      </c>
+      <c r="B833" t="n">
+        <v>0</v>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>[2 2 1]</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E833" t="n">
+        <v>20.79723740712586</v>
+      </c>
+      <c r="F833" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G833" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H833" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I833" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J833" t="inlineStr">
+        <is>
+          <t>[6.958590987147282e-20, 1.5851893636707054e-13, 1.0]</t>
+        </is>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>[1.0, 1.2749756974264463e-16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>830</v>
+      </c>
+      <c r="B834" t="n">
+        <v>0</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>[2 2 0]</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E834" t="n">
+        <v>18.79944857287782</v>
+      </c>
+      <c r="F834" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G834" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H834" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I834" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J834" t="inlineStr">
+        <is>
+          <t>[5.247738692538079e-17, 5.277809123072075e-07, 0.9999995231628418]</t>
+        </is>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>[1.0, 7.872475089525197e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>830</v>
+      </c>
+      <c r="B835" t="n">
+        <v>0</v>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>[ 2  2 -1]</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E835" t="n">
+        <v>19.87667124413356</v>
+      </c>
+      <c r="F835" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G835" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H835" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I835" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J835" t="inlineStr">
+        <is>
+          <t>[1.1458985277042026e-14, 1.0, 4.1348631185655904e-08]</t>
+        </is>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>[1.0, 5.453769861662582e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>830</v>
+      </c>
+      <c r="B836" t="n">
+        <v>0</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>[ 2  1 -1]</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E836" t="n">
+        <v>20.69211748843699</v>
+      </c>
+      <c r="F836" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G836" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H836" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I836" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J836" t="inlineStr">
+        <is>
+          <t>[1.0268071948260626e-09, 1.0, 1.2189107145496592e-12]</t>
+        </is>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>[1.0, 2.1712804519608557e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>830</v>
+      </c>
+      <c r="B837" t="n">
+        <v>0</v>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>[ 2  0 -1]</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E837" t="n">
+        <v>24.25261996417137</v>
+      </c>
+      <c r="F837" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G837" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H837" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I837" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J837" t="inlineStr">
+        <is>
+          <t>[0.9999998807907104, 1.236503948121026e-07, 8.522148698324755e-17]</t>
+        </is>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>[1.0, 9.068870746341474e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>830</v>
+      </c>
+      <c r="B838" t="n">
+        <v>0</v>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>[ 1  0 -1]</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E838" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="F838" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G838" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H838" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I838" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J838" t="inlineStr">
+        <is>
+          <t>[1.0, 1.3553680844324845e-08, 2.5440587136937864e-13]</t>
+        </is>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>[1.0, 6.5703729468959725e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>830</v>
+      </c>
+      <c r="B839" t="n">
+        <v>0</v>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G839" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H839" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I839" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J839" t="inlineStr">
+        <is>
+          <t>[0.04435185715556145, 4.950653237756342e-05, 0.9555985331535339]</t>
+        </is>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>[1.0, 5.53732775939381e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>830</v>
+      </c>
+      <c r="B840" t="n">
+        <v>0</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>[ 0  0 -2]</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G840" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H840" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I840" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J840" t="inlineStr">
+        <is>
+          <t>[0.9999960660934448, 3.896168436767766e-06, 3.664054303020858e-12]</t>
+        </is>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>[1.0, 6.1230700675742475e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>830</v>
+      </c>
+      <c r="B841" t="n">
+        <v>0</v>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>[-1  0 -2]</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G841" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H841" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I841" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J841" t="inlineStr">
+        <is>
+          <t>[0.9970867037773132, 0.0025804967153817415, 0.00033277514739893377]</t>
+        </is>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>[1.0, 6.885744240828246e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="n">
+        <v>0</v>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E842" t="n">
+        <v>21.0546400866959</v>
+      </c>
+      <c r="F842" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G842" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H842" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I842" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J842" t="inlineStr">
+        <is>
+          <t>[2.7885815875159635e-20, 1.2139020808305694e-15, 1.0]</t>
+        </is>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>[1.0, 2.2755357486507527e-16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>840</v>
+      </c>
+      <c r="B843" t="n">
+        <v>0</v>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>[2 2 1]</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E843" t="n">
+        <v>20.79723740712586</v>
+      </c>
+      <c r="F843" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G843" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H843" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I843" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J843" t="inlineStr">
+        <is>
+          <t>[6.952328971416315e-20, 1.568856535568569e-13, 1.0]</t>
+        </is>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>[1.0, 1.2749756974264463e-16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>840</v>
+      </c>
+      <c r="B844" t="n">
+        <v>0</v>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>[2 2 0]</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E844" t="n">
+        <v>18.79944857287782</v>
+      </c>
+      <c r="F844" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G844" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H844" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I844" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J844" t="inlineStr">
+        <is>
+          <t>[5.2267015043273857e-17, 5.19298225754028e-07, 0.9999995231628418]</t>
+        </is>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>[1.0, 7.872475089525197e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>840</v>
+      </c>
+      <c r="B845" t="n">
+        <v>0</v>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>[ 2  2 -1]</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E845" t="n">
+        <v>19.87667124413356</v>
+      </c>
+      <c r="F845" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G845" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H845" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I845" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J845" t="inlineStr">
+        <is>
+          <t>[1.1559480654036065e-14, 1.0, 4.184801127848914e-08]</t>
+        </is>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>[1.0, 5.453769861662582e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>840</v>
+      </c>
+      <c r="B846" t="n">
+        <v>0</v>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>[ 2  1 -1]</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E846" t="n">
+        <v>20.69211748843699</v>
+      </c>
+      <c r="F846" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G846" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H846" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I846" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J846" t="inlineStr">
+        <is>
+          <t>[1.0377185777343811e-09, 1.0, 1.2305156893432923e-12]</t>
+        </is>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>[1.0, 2.1712804519608557e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>840</v>
+      </c>
+      <c r="B847" t="n">
+        <v>0</v>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>[ 2  0 -1]</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E847" t="n">
+        <v>24.25261996417137</v>
+      </c>
+      <c r="F847" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G847" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H847" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I847" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J847" t="inlineStr">
+        <is>
+          <t>[0.9999998807907104, 1.2256512604835734e-07, 8.506493808923822e-17]</t>
+        </is>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>[1.0, 9.068870746341474e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>840</v>
+      </c>
+      <c r="B848" t="n">
+        <v>0</v>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>[ 1  0 -1]</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E848" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="F848" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G848" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H848" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I848" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J848" t="inlineStr">
+        <is>
+          <t>[1.0, 1.3432542189661945e-08, 2.5506907783828803e-13]</t>
+        </is>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>[1.0, 6.5703729468959725e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>840</v>
+      </c>
+      <c r="B849" t="n">
+        <v>0</v>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F849" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G849" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H849" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I849" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J849" t="inlineStr">
+        <is>
+          <t>[0.044282298535108566, 4.908235132461414e-05, 0.9556686282157898]</t>
+        </is>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>[1.0, 5.53732775939381e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>840</v>
+      </c>
+      <c r="B850" t="n">
+        <v>0</v>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>[ 0  0 -2]</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F850" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G850" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H850" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I850" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J850" t="inlineStr">
+        <is>
+          <t>[0.9999961853027344, 3.8729967855033465e-06, 3.654534140584698e-12]</t>
+        </is>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>[1.0, 6.1230700675742475e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>840</v>
+      </c>
+      <c r="B851" t="n">
+        <v>0</v>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>[-1  0 -2]</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G851" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H851" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I851" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J851" t="inlineStr">
+        <is>
+          <t>[0.9970976114273071, 0.0025697832461446524, 0.0003326372825540602]</t>
+        </is>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>[1.0, 6.885744240828246e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="n">
+        <v>0</v>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E852" t="n">
+        <v>21.0546400866959</v>
+      </c>
+      <c r="F852" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G852" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H852" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I852" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J852" t="inlineStr">
+        <is>
+          <t>[2.788709218899541e-20, 1.2051401602659341e-15, 1.0]</t>
+        </is>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>[1.0, 2.2755357486507527e-16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>850</v>
+      </c>
+      <c r="B853" t="n">
+        <v>0</v>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>[2 2 1]</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E853" t="n">
+        <v>20.79723740712586</v>
+      </c>
+      <c r="F853" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G853" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H853" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I853" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J853" t="inlineStr">
+        <is>
+          <t>[6.946179400549866e-20, 1.552813324971758e-13, 1.0]</t>
+        </is>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>[1.0, 1.2749756974264463e-16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>850</v>
+      </c>
+      <c r="B854" t="n">
+        <v>0</v>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>[2 2 0]</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E854" t="n">
+        <v>18.79944857287782</v>
+      </c>
+      <c r="F854" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G854" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H854" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I854" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J854" t="inlineStr">
+        <is>
+          <t>[5.20602662122499e-17, 5.110230176796904e-07, 0.9999995231628418]</t>
+        </is>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>[1.0, 7.872475089525197e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>850</v>
+      </c>
+      <c r="B855" t="n">
+        <v>0</v>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>[ 2  2 -1]</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E855" t="n">
+        <v>19.87667124413356</v>
+      </c>
+      <c r="F855" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G855" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H855" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I855" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J855" t="inlineStr">
+        <is>
+          <t>[1.1660280962891116e-14, 1.0, 4.2348009543502485e-08]</t>
+        </is>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>[1.0, 5.453769861662582e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>850</v>
+      </c>
+      <c r="B856" t="n">
+        <v>0</v>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>[ 2  1 -1]</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E856" t="n">
+        <v>20.69211748843699</v>
+      </c>
+      <c r="F856" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G856" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H856" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I856" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J856" t="inlineStr">
+        <is>
+          <t>[1.0486940205112205e-09, 1.0, 1.242112641040849e-12]</t>
+        </is>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>[1.0, 2.1712804519608557e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>850</v>
+      </c>
+      <c r="B857" t="n">
+        <v>0</v>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>[ 2  0 -1]</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E857" t="n">
+        <v>24.25261996417137</v>
+      </c>
+      <c r="F857" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G857" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H857" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I857" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J857" t="inlineStr">
+        <is>
+          <t>[0.9999998807907104, 1.2149376971137826e-07, 8.490770098095924e-17]</t>
+        </is>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>[1.0, 9.068870746341474e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>850</v>
+      </c>
+      <c r="B858" t="n">
+        <v>0</v>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>[ 1  0 -1]</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E858" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="F858" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G858" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H858" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I858" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J858" t="inlineStr">
+        <is>
+          <t>[1.0, 1.3313019131544479e-08, 2.5571989729737676e-13]</t>
+        </is>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>[1.0, 6.5703729468959725e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>850</v>
+      </c>
+      <c r="B859" t="n">
+        <v>0</v>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G859" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H859" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I859" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J859" t="inlineStr">
+        <is>
+          <t>[0.04421539604663849, 4.866564995609224e-05, 0.9557359218597412]</t>
+        </is>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>[1.0, 5.53732775939381e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>850</v>
+      </c>
+      <c r="B860" t="n">
+        <v>0</v>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>[ 0  0 -2]</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G860" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H860" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I860" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J860" t="inlineStr">
+        <is>
+          <t>[0.9999961853027344, 3.8500579648825806e-06, 3.645052575745877e-12]</t>
+        </is>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>[1.0, 6.1230700675742475e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>850</v>
+      </c>
+      <c r="B861" t="n">
+        <v>0</v>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>[-1  0 -2]</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G861" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H861" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I861" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J861" t="inlineStr">
+        <is>
+          <t>[0.9971083998680115, 0.0025591342709958553, 0.00033249083207920194]</t>
+        </is>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>[1.0, 6.885744240828246e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="n">
+        <v>0</v>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E862" t="n">
+        <v>21.0546400866959</v>
+      </c>
+      <c r="F862" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G862" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H862" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I862" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J862" t="inlineStr">
+        <is>
+          <t>[2.7888791786660266e-20, 1.1965192706870167e-15, 1.0]</t>
+        </is>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>[1.0, 2.2755357486507527e-16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>860</v>
+      </c>
+      <c r="B863" t="n">
+        <v>0</v>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>[2 2 1]</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E863" t="n">
+        <v>20.79723740712586</v>
+      </c>
+      <c r="F863" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G863" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H863" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I863" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J863" t="inlineStr">
+        <is>
+          <t>[6.940219822730363e-20, 1.5370953750266925e-13, 1.0]</t>
+        </is>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>[1.0, 1.2749756974264463e-16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>860</v>
+      </c>
+      <c r="B864" t="n">
+        <v>0</v>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>[2 2 0]</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E864" t="n">
+        <v>18.79944857287782</v>
+      </c>
+      <c r="F864" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G864" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H864" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I864" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J864" t="inlineStr">
+        <is>
+          <t>[5.185769960640302e-17, 5.029602903050545e-07, 0.9999995231628418]</t>
+        </is>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>[1.0, 7.872475089525197e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>860</v>
+      </c>
+      <c r="B865" t="n">
+        <v>0</v>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>[ 2  2 -1]</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E865" t="n">
+        <v>19.87667124413356</v>
+      </c>
+      <c r="F865" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G865" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H865" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I865" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J865" t="inlineStr">
+        <is>
+          <t>[1.1761195621194046e-14, 1.0, 4.284809307364412e-08]</t>
+        </is>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>[1.0, 5.453769861662582e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>860</v>
+      </c>
+      <c r="B866" t="n">
+        <v>0</v>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>[ 2  1 -1]</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E866" t="n">
+        <v>20.69211748843699</v>
+      </c>
+      <c r="F866" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G866" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H866" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I866" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J866" t="inlineStr">
+        <is>
+          <t>[1.059736964847957e-09, 1.0, 1.2536824876840935e-12]</t>
+        </is>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>[1.0, 2.1712804519608557e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>860</v>
+      </c>
+      <c r="B867" t="n">
+        <v>0</v>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>[ 2  0 -1]</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E867" t="n">
+        <v>24.25261996417137</v>
+      </c>
+      <c r="F867" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G867" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H867" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I867" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J867" t="inlineStr">
+        <is>
+          <t>[0.9999998807907104, 1.2043695107877284e-07, 8.474849849154483e-17]</t>
+        </is>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>[1.0, 9.068870746341474e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>860</v>
+      </c>
+      <c r="B868" t="n">
+        <v>0</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>[ 1  0 -1]</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E868" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="F868" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G868" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H868" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I868" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J868" t="inlineStr">
+        <is>
+          <t>[1.0, 1.3195113446329287e-08, 2.5635523977045327e-13]</t>
+        </is>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>[1.0, 6.5703729468959725e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>860</v>
+      </c>
+      <c r="B869" t="n">
+        <v>0</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G869" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H869" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I869" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J869" t="inlineStr">
+        <is>
+          <t>[0.044151343405246735, 4.8256672016577795e-05, 0.9558002948760986]</t>
+        </is>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>[1.0, 5.53732775939381e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>860</v>
+      </c>
+      <c r="B870" t="n">
+        <v>0</v>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>[ 0  0 -2]</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G870" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H870" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I870" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J870" t="inlineStr">
+        <is>
+          <t>[0.9999961853027344, 3.827356522378977e-06, 3.6356304251861093e-12]</t>
+        </is>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>[1.0, 6.1230700675742475e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>860</v>
+      </c>
+      <c r="B871" t="n">
+        <v>0</v>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>[-1  0 -2]</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G871" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H871" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I871" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J871" t="inlineStr">
+        <is>
+          <t>[0.9971190690994263, 0.0025485658552497625, 0.0003323374839965254]</t>
+        </is>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>[1.0, 6.885744240828246e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="n">
+        <v>0</v>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E872" t="n">
+        <v>21.0546400866959</v>
+      </c>
+      <c r="F872" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G872" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H872" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I872" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J872" t="inlineStr">
+        <is>
+          <t>[2.789070787300106e-20, 1.1880277653907923e-15, 1.0]</t>
+        </is>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>[1.0, 2.2755357486507527e-16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>870</v>
+      </c>
+      <c r="B873" t="n">
+        <v>0</v>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>[2 2 1]</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E873" t="n">
+        <v>20.79723740712586</v>
+      </c>
+      <c r="F873" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G873" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H873" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I873" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J873" t="inlineStr">
+        <is>
+          <t>[6.93431840604768e-20, 1.521646713796218e-13, 1.0]</t>
+        </is>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>[1.0, 1.2749756974264463e-16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>870</v>
+      </c>
+      <c r="B874" t="n">
+        <v>0</v>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>[2 2 0]</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E874" t="n">
+        <v>18.79944857287782</v>
+      </c>
+      <c r="F874" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G874" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H874" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I874" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J874" t="inlineStr">
+        <is>
+          <t>[5.165828290432873e-17, 4.950888978783041e-07, 0.9999995231628418]</t>
+        </is>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>[1.0, 7.872475089525197e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>870</v>
+      </c>
+      <c r="B875" t="n">
+        <v>0</v>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>[ 2  2 -1]</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E875" t="n">
+        <v>19.87667124413356</v>
+      </c>
+      <c r="F875" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G875" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H875" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I875" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J875" t="inlineStr">
+        <is>
+          <t>[1.1862350836853996e-14, 1.0, 4.3348538980581e-08]</t>
+        </is>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>[1.0, 5.453769861662582e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>870</v>
+      </c>
+      <c r="B876" t="n">
+        <v>0</v>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>[ 2  1 -1]</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E876" t="n">
+        <v>20.69211748843699</v>
+      </c>
+      <c r="F876" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G876" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H876" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I876" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J876" t="inlineStr">
+        <is>
+          <t>[1.070861621599306e-09, 1.0, 1.2652516838060346e-12]</t>
+        </is>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>[1.0, 2.1712804519608557e-17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>870</v>
+      </c>
+      <c r="B877" t="n">
+        <v>0</v>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>[ 2  0 -1]</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E877" t="n">
+        <v>24.25261996417137</v>
+      </c>
+      <c r="F877" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G877" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H877" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I877" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>[0.9999998807907104, 1.1939410171635245e-07, 8.458958716970604e-17]</t>
+        </is>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>[1.0, 9.068870746341474e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>870</v>
+      </c>
+      <c r="B878" t="n">
+        <v>0</v>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>[ 1  0 -1]</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E878" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="F878" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G878" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H878" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I878" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J878" t="inlineStr">
+        <is>
+          <t>[1.0, 1.3078626182050357e-08, 2.5697646051023315e-13]</t>
+        </is>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>[1.0, 6.5703729468959725e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>870</v>
+      </c>
+      <c r="B879" t="n">
+        <v>0</v>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G879" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H879" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I879" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J879" t="inlineStr">
+        <is>
+          <t>[0.04409005865454674, 4.7855282900854945e-05, 0.9558620452880859]</t>
+        </is>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>[1.0, 5.53732775939381e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>870</v>
+      </c>
+      <c r="B880" t="n">
+        <v>0</v>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>[ 0  0 -2]</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G880" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H880" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I880" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>[0.9999961853027344, 3.804865400525159e-06, 3.626191144232016e-12]</t>
+        </is>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>[1.0, 6.1230700675742475e-18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>870</v>
+      </c>
+      <c r="B881" t="n">
+        <v>0</v>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>[-1  0 -2]</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G881" t="n">
+        <v>25.74904156015204</v>
+      </c>
+      <c r="H881" t="n">
+        <v>3.552713678800501e-15</v>
+      </c>
+      <c r="I881" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>[0.9971297383308411, 0.0025380640290677547, 0.00033217438613064587]</t>
+        </is>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>[1.0, 6.885744240828246e-18]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
